--- a/data/result_history/_validation_report.xlsx
+++ b/data/result_history/_validation_report.xlsx
@@ -411,16 +411,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>83.14350797266515</v>
+        <v>85.57327258921792</v>
       </c>
       <c r="D2" t="n">
-        <v>80.54794520547945</v>
+        <v>82.92902066486973</v>
       </c>
       <c r="E2" t="n">
-        <v>79.24528301886792</v>
+        <v>82.92902066486973</v>
       </c>
       <c r="F2" t="n">
-        <v>79.89130434782609</v>
+        <v>82.92902066486973</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -431,16 +431,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>82.46013667425967</v>
+        <v>83.94077448747153</v>
       </c>
       <c r="D3" t="n">
-        <v>78.31010452961672</v>
+        <v>81.40382862351869</v>
       </c>
       <c r="E3" t="n">
-        <v>80.84532374100719</v>
+        <v>80.30575539568345</v>
       </c>
       <c r="F3" t="n">
-        <v>79.5575221238938</v>
+        <v>80.85106382978724</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -451,16 +451,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>82.72589217919514</v>
+        <v>83.94077448747153</v>
       </c>
       <c r="D4" t="n">
-        <v>78.14910025706941</v>
+        <v>81.2897366030881</v>
       </c>
       <c r="E4" t="n">
-        <v>82.01438848920863</v>
+        <v>80.48561151079137</v>
       </c>
       <c r="F4" t="n">
-        <v>80.0351031154015</v>
+        <v>80.88567555354722</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -471,16 +471,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>80.48595292331055</v>
+        <v>82.42217160212604</v>
       </c>
       <c r="D5" t="n">
-        <v>76.60142348754448</v>
+        <v>79.52684258416743</v>
       </c>
       <c r="E5" t="n">
-        <v>77.42805755395683</v>
+        <v>78.59712230215827</v>
       </c>
       <c r="F5" t="n">
-        <v>77.01252236135957</v>
+        <v>79.05924920850293</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -491,16 +491,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>81.88378275731105</v>
+        <v>82.33953665020888</v>
       </c>
       <c r="D6" t="n">
-        <v>79.26267281105991</v>
+        <v>78.70452528837622</v>
       </c>
       <c r="E6" t="n">
-        <v>77.33812949640287</v>
+        <v>79.76618705035972</v>
       </c>
       <c r="F6" t="n">
-        <v>78.28857532999545</v>
+        <v>79.23179991067441</v>
       </c>
     </row>
   </sheetData>

--- a/data/result_history/_validation_report.xlsx
+++ b/data/result_history/_validation_report.xlsx
@@ -411,16 +411,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>85.57327258921792</v>
+        <v>84.32042520880789</v>
       </c>
       <c r="D2" t="n">
-        <v>82.92902066486973</v>
+        <v>78.40909090909091</v>
       </c>
       <c r="E2" t="n">
-        <v>82.92902066486973</v>
+        <v>86.79245283018868</v>
       </c>
       <c r="F2" t="n">
-        <v>82.92902066486973</v>
+        <v>82.38805970149254</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -431,16 +431,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>83.94077448747153</v>
+        <v>84.66211085801064</v>
       </c>
       <c r="D3" t="n">
-        <v>81.40382862351869</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="E3" t="n">
-        <v>80.30575539568345</v>
+        <v>79.58633093525181</v>
       </c>
       <c r="F3" t="n">
-        <v>80.85106382978724</v>
+        <v>81.41674333026678</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -451,16 +451,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>83.94077448747153</v>
+        <v>84.43432042520881</v>
       </c>
       <c r="D4" t="n">
-        <v>81.2897366030881</v>
+        <v>84.34442270058709</v>
       </c>
       <c r="E4" t="n">
-        <v>80.48561151079137</v>
+        <v>77.51798561151078</v>
       </c>
       <c r="F4" t="n">
-        <v>80.88567555354722</v>
+        <v>80.78725398313027</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -471,16 +471,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>82.42217160212604</v>
+        <v>83.44722854973425</v>
       </c>
       <c r="D5" t="n">
-        <v>79.52684258416743</v>
+        <v>80.67150635208712</v>
       </c>
       <c r="E5" t="n">
-        <v>78.59712230215827</v>
+        <v>79.94604316546763</v>
       </c>
       <c r="F5" t="n">
-        <v>79.05924920850293</v>
+        <v>80.30713640469737</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -491,16 +491,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>82.33953665020888</v>
+        <v>82.75731105203189</v>
       </c>
       <c r="D6" t="n">
-        <v>78.70452528837622</v>
+        <v>78.31325301204819</v>
       </c>
       <c r="E6" t="n">
-        <v>79.76618705035972</v>
+        <v>81.83453237410072</v>
       </c>
       <c r="F6" t="n">
-        <v>79.23179991067441</v>
+        <v>80.03518029903253</v>
       </c>
     </row>
   </sheetData>

--- a/data/result_history/_validation_report.xlsx
+++ b/data/result_history/_validation_report.xlsx
@@ -411,16 +411,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>84.32042520880789</v>
+        <v>84.77257745550429</v>
       </c>
       <c r="D2" t="n">
-        <v>78.40909090909091</v>
+        <v>83.52649006622516</v>
       </c>
       <c r="E2" t="n">
-        <v>86.79245283018868</v>
+        <v>79.32389937106919</v>
       </c>
       <c r="F2" t="n">
-        <v>82.38805970149254</v>
+        <v>81.37096774193549</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -431,16 +431,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>84.66211085801064</v>
+        <v>85.33289386947924</v>
       </c>
       <c r="D3" t="n">
-        <v>83.33333333333334</v>
+        <v>84.48707256046706</v>
       </c>
       <c r="E3" t="n">
-        <v>79.58633093525181</v>
+        <v>79.63836477987421</v>
       </c>
       <c r="F3" t="n">
-        <v>81.41674333026678</v>
+        <v>81.99109672197491</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -451,16 +451,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>84.43432042520881</v>
+        <v>84.64073829927489</v>
       </c>
       <c r="D4" t="n">
-        <v>84.34442270058709</v>
+        <v>84.13910093299405</v>
       </c>
       <c r="E4" t="n">
-        <v>77.51798561151078</v>
+        <v>78.04878048780488</v>
       </c>
       <c r="F4" t="n">
-        <v>80.78725398313027</v>
+        <v>80.9795918367347</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -471,16 +471,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>83.44722854973425</v>
+        <v>85.43177323665128</v>
       </c>
       <c r="D5" t="n">
-        <v>80.67150635208712</v>
+        <v>84.45552784704904</v>
       </c>
       <c r="E5" t="n">
-        <v>79.94604316546763</v>
+        <v>79.93705743509048</v>
       </c>
       <c r="F5" t="n">
-        <v>80.30713640469737</v>
+        <v>82.13419563459983</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -491,16 +491,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>82.75731105203189</v>
+        <v>85.03132212331025</v>
       </c>
       <c r="D6" t="n">
-        <v>78.31325301204819</v>
+        <v>84.35660218671153</v>
       </c>
       <c r="E6" t="n">
-        <v>81.83453237410072</v>
+        <v>78.91424075531079</v>
       </c>
       <c r="F6" t="n">
-        <v>80.03518029903253</v>
+        <v>81.54471544715449</v>
       </c>
     </row>
   </sheetData>
